--- a/data/Transportation and Country of Destination Data 2012 and 2009.xlsx
+++ b/data/Transportation and Country of Destination Data 2012 and 2009.xlsx
@@ -169,8 +169,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,19 +196,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
